--- a/teaching/traditional_assets/database/data/switzerland/switzerland_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/switzerland/switzerland_financial_svcs_non_bank_insurance.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.04565</v>
+        <v>0.0559</v>
       </c>
       <c r="E2">
-        <v>0.0713</v>
+        <v>0.00482</v>
       </c>
       <c r="F2">
-        <v>0.104</v>
+        <v>0.0545</v>
       </c>
       <c r="G2">
-        <v>0.0002416121201043344</v>
+        <v>0.0002407963091197683</v>
       </c>
       <c r="H2">
-        <v>0.0002416121201043344</v>
+        <v>0.0002407963091197683</v>
       </c>
       <c r="I2">
-        <v>-0.002752687269168246</v>
+        <v>-0.002538985149309312</v>
       </c>
       <c r="J2">
-        <v>-0.002325983464367056</v>
+        <v>-0.002150991924144639</v>
       </c>
       <c r="K2">
-        <v>51369.63</v>
+        <v>23643.04</v>
       </c>
       <c r="L2">
-        <v>0.5396315310119661</v>
+        <v>0.3368731815604171</v>
       </c>
       <c r="M2">
-        <v>16700.2644</v>
+        <v>13368.0992</v>
       </c>
       <c r="N2">
-        <v>0.2000077175408782</v>
+        <v>0.1549910168949157</v>
       </c>
       <c r="O2">
-        <v>0.3250999549733957</v>
+        <v>0.5654137200630713</v>
       </c>
       <c r="P2">
-        <v>3363.6144</v>
+        <v>1824.6992</v>
       </c>
       <c r="Q2">
-        <v>0.04028372382126061</v>
+        <v>0.02115573652650178</v>
       </c>
       <c r="R2">
-        <v>0.06547865733118964</v>
+        <v>0.07717701276993144</v>
       </c>
       <c r="S2">
-        <v>13336.65</v>
+        <v>11543.4</v>
       </c>
       <c r="T2">
-        <v>0.7985891528759269</v>
+        <v>0.8635034665212539</v>
       </c>
       <c r="U2">
-        <v>233321.9</v>
+        <v>343144.5</v>
       </c>
       <c r="V2">
-        <v>2.794337835232179</v>
+        <v>3.978450054956012</v>
       </c>
       <c r="W2">
-        <v>0.06955159600552799</v>
+        <v>0.09687906374949544</v>
       </c>
       <c r="X2">
-        <v>0.0603182161587849</v>
+        <v>0.0444034977762664</v>
       </c>
       <c r="Y2">
-        <v>0.009233379846743092</v>
+        <v>0.05247556597322904</v>
       </c>
       <c r="Z2">
-        <v>0.1649662157516931</v>
+        <v>0.1135586164008804</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.03209445503768285</v>
+        <v>0.02179981290073244</v>
       </c>
       <c r="AC2">
-        <v>-0.03033409439178223</v>
+        <v>-0.02117087207342833</v>
       </c>
       <c r="AD2">
-        <v>582729</v>
+        <v>621535.6</v>
       </c>
       <c r="AE2">
-        <v>7384.810183162375</v>
+        <v>3498.828129610474</v>
       </c>
       <c r="AF2">
-        <v>590113.8101831625</v>
+        <v>625034.4281296105</v>
       </c>
       <c r="AG2">
-        <v>356791.9101831624</v>
+        <v>281889.9281296105</v>
       </c>
       <c r="AH2">
-        <v>0.8760442047746811</v>
+        <v>0.8787395033820617</v>
       </c>
       <c r="AI2">
-        <v>0.683447751952492</v>
+        <v>0.6714639958713038</v>
       </c>
       <c r="AJ2">
-        <v>0.8103565875472295</v>
+        <v>0.7657124207956859</v>
       </c>
       <c r="AK2">
-        <v>0.5662332658119499</v>
+        <v>0.4796422354092449</v>
       </c>
       <c r="AL2">
-        <v>17.5</v>
+        <v>21.7</v>
       </c>
       <c r="AM2">
-        <v>17.431</v>
+        <v>19.81</v>
       </c>
       <c r="AN2">
-        <v>479.6427427911069</v>
+        <v>1191.206086973187</v>
       </c>
       <c r="AO2">
-        <v>0.88</v>
+        <v>1.410138248847926</v>
       </c>
       <c r="AP2">
-        <v>293.6745046255297</v>
+        <v>540.2570637054843</v>
       </c>
       <c r="AQ2">
-        <v>0.8834834490275945</v>
+        <v>1.54467440686522</v>
       </c>
     </row>
     <row r="3">
@@ -728,25 +728,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.326</v>
+        <v>0.453</v>
       </c>
       <c r="G3">
-        <v>0.8098591549295775</v>
+        <v>0.3634408602150537</v>
       </c>
       <c r="H3">
-        <v>0.8098591549295775</v>
+        <v>0.3634408602150537</v>
       </c>
       <c r="I3">
-        <v>0.5434096879895175</v>
+        <v>0.6580645161290323</v>
       </c>
       <c r="J3">
-        <v>0.5434096879895175</v>
+        <v>0.5556989247311828</v>
       </c>
       <c r="K3">
-        <v>-2.37</v>
+        <v>6.94</v>
       </c>
       <c r="L3">
-        <v>-0.08345070422535213</v>
+        <v>0.149247311827957</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,7 +755,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -764,79 +764,79 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>11.8</v>
+        <v>61.1</v>
       </c>
       <c r="V3">
-        <v>0.2239089184060721</v>
+        <v>1.369955156950673</v>
       </c>
       <c r="W3">
-        <v>-0.06303191489361702</v>
+        <v>0.2103030303030303</v>
       </c>
       <c r="X3">
-        <v>0.0496190908332794</v>
+        <v>0.04648645375566263</v>
       </c>
       <c r="Y3">
-        <v>-0.1126510057268964</v>
+        <v>0.1638165765473677</v>
       </c>
       <c r="Z3">
-        <v>0.1969885386784102</v>
+        <v>0.2296749975303764</v>
       </c>
       <c r="AA3">
-        <v>0.1070454803407459</v>
+        <v>0.1276301491652672</v>
       </c>
       <c r="AB3">
-        <v>0.03278546529815661</v>
+        <v>0.0218704478254725</v>
       </c>
       <c r="AC3">
-        <v>0.07426001504258928</v>
+        <v>0.1057597013397947</v>
       </c>
       <c r="AD3">
-        <v>185.8</v>
+        <v>198.9</v>
       </c>
       <c r="AE3">
-        <v>1.300824305488511</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>187.1008243054885</v>
+        <v>198.9</v>
       </c>
       <c r="AG3">
-        <v>175.3008243054885</v>
+        <v>137.8</v>
       </c>
       <c r="AH3">
-        <v>0.7802342833781751</v>
+        <v>0.8168377823408625</v>
       </c>
       <c r="AI3">
-        <v>0.8500687123543085</v>
+        <v>0.8171733771569433</v>
       </c>
       <c r="AJ3">
-        <v>0.7688604847788203</v>
+        <v>0.7554824561403509</v>
       </c>
       <c r="AK3">
-        <v>0.8415752788783828</v>
+        <v>0.7558968732857927</v>
       </c>
       <c r="AL3">
-        <v>17.5</v>
+        <v>21.7</v>
       </c>
       <c r="AM3">
-        <v>17.431</v>
+        <v>19.81</v>
       </c>
       <c r="AN3">
-        <v>11.83967373988403</v>
+        <v>6.457792207792208</v>
       </c>
       <c r="AO3">
-        <v>0.88</v>
+        <v>1.410138248847926</v>
       </c>
       <c r="AP3">
-        <v>11.17063813837306</v>
+        <v>4.474025974025975</v>
       </c>
       <c r="AQ3">
-        <v>0.8834834490275945</v>
+        <v>1.54467440686522</v>
       </c>
     </row>
     <row r="4">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.04679999999999999</v>
+        <v>0.0559</v>
       </c>
       <c r="E4">
-        <v>0.0713</v>
+        <v>0.0134</v>
       </c>
       <c r="F4">
-        <v>0.08560000000000001</v>
+        <v>0.0803</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -871,91 +871,91 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.007403794024771897</v>
+        <v>0.007999434595744388</v>
       </c>
       <c r="J4">
-        <v>0.005824073616516112</v>
+        <v>0.006286369920524824</v>
       </c>
       <c r="K4">
-        <v>158.9</v>
+        <v>163.4</v>
       </c>
       <c r="L4">
-        <v>0.3845595353339787</v>
+        <v>0.3436382754994742</v>
       </c>
       <c r="M4">
-        <v>110.15</v>
+        <v>118.7</v>
       </c>
       <c r="N4">
-        <v>0.03424742716786369</v>
+        <v>0.03335581408419042</v>
       </c>
       <c r="O4">
-        <v>0.6932032724984267</v>
+        <v>0.726438188494492</v>
       </c>
       <c r="P4">
-        <v>108.4</v>
+        <v>116.4</v>
       </c>
       <c r="Q4">
-        <v>0.03370332369492895</v>
+        <v>0.0327094924970494</v>
       </c>
       <c r="R4">
-        <v>0.6821900566393958</v>
+        <v>0.7123623011015912</v>
       </c>
       <c r="S4">
-        <v>1.75</v>
+        <v>2.299999999999997</v>
       </c>
       <c r="T4">
-        <v>0.01588742623694961</v>
+        <v>0.01937657961246838</v>
       </c>
       <c r="U4">
-        <v>423.8</v>
+        <v>605.1</v>
       </c>
       <c r="V4">
-        <v>0.1317663153312813</v>
+        <v>0.1700387792952285</v>
       </c>
       <c r="W4">
-        <v>0.1827276908923643</v>
+        <v>0.1757934373318989</v>
       </c>
       <c r="X4">
-        <v>0.03018449698911628</v>
+        <v>0.02210914104425214</v>
       </c>
       <c r="Y4">
-        <v>0.152543193903248</v>
+        <v>0.1536842962876467</v>
       </c>
       <c r="Z4">
-        <v>0.208229000295957</v>
+        <v>0.2270522792555199</v>
       </c>
       <c r="AA4">
-        <v>0.001212741026817209</v>
+        <v>0.001427334618698503</v>
       </c>
       <c r="AB4">
-        <v>0.02869119156109538</v>
+        <v>0.0208793191920735</v>
       </c>
       <c r="AC4">
-        <v>-0.02747845053427818</v>
+        <v>-0.01945198457337499</v>
       </c>
       <c r="AD4">
-        <v>1602.6</v>
+        <v>2707.4</v>
       </c>
       <c r="AE4">
-        <v>14.85376154482126</v>
+        <v>19.83134424861772</v>
       </c>
       <c r="AF4">
-        <v>1617.453761544821</v>
+        <v>2727.231344248618</v>
       </c>
       <c r="AG4">
-        <v>1193.653761544821</v>
+        <v>2122.131344248618</v>
       </c>
       <c r="AH4">
-        <v>0.3346164991714221</v>
+        <v>0.433869633925824</v>
       </c>
       <c r="AI4">
-        <v>0.6350542306522974</v>
+        <v>0.7100442834867001</v>
       </c>
       <c r="AJ4">
-        <v>0.2706726251766142</v>
+        <v>0.3735665736766697</v>
       </c>
       <c r="AK4">
-        <v>0.5622078735721479</v>
+        <v>0.6558226058414647</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -964,10 +964,10 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>265.7711442786069</v>
+        <v>348.4427284427285</v>
       </c>
       <c r="AP4">
-        <v>197.9525309361229</v>
+        <v>273.1185771233743</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +978,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hypothekarbank Lenzburg AG (SWX:HBLN)</t>
+          <t>Schweizerische Nationalbank (SWX:SNBN)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -986,12 +986,6 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D5">
-        <v>0.0445</v>
-      </c>
-      <c r="E5">
-        <v>0.00114</v>
-      </c>
       <c r="G5">
         <v>0</v>
       </c>
@@ -1005,28 +999,28 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>21.8</v>
+        <v>13585.7</v>
       </c>
       <c r="L5">
-        <v>0.2626506024096386</v>
+        <v>0.9709619782732991</v>
       </c>
       <c r="M5">
-        <v>8.1144</v>
+        <v>1.64</v>
       </c>
       <c r="N5">
-        <v>0.02390103092783505</v>
+        <v>0.003100189035916824</v>
       </c>
       <c r="O5">
-        <v>0.3722201834862385</v>
+        <v>0.0001207151637383425</v>
       </c>
       <c r="P5">
-        <v>8.1144</v>
+        <v>1.64</v>
       </c>
       <c r="Q5">
-        <v>0.02390103092783505</v>
+        <v>0.003100189035916824</v>
       </c>
       <c r="R5">
-        <v>0.3722201834862385</v>
+        <v>0.0001207151637383425</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1035,55 +1029,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>474.8</v>
+        <v>4816.8</v>
       </c>
       <c r="V5">
-        <v>1.398527245949927</v>
+        <v>9.105482041587901</v>
       </c>
       <c r="W5">
-        <v>0.04676104676104676</v>
+        <v>0.07987603830559815</v>
       </c>
       <c r="X5">
-        <v>0.04484538275523355</v>
+        <v>0.02710362375095003</v>
       </c>
       <c r="Y5">
-        <v>0.001915664005813215</v>
+        <v>0.05277241455464812</v>
       </c>
       <c r="Z5">
-        <v>0.08137254901960785</v>
+        <v>0.07875961487043673</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.02883749612257053</v>
+        <v>0.02061256617086429</v>
       </c>
       <c r="AC5">
-        <v>-0.02883749612257053</v>
+        <v>-0.02061256617086429</v>
       </c>
       <c r="AD5">
-        <v>951.2</v>
+        <v>805.7</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>951.2</v>
+        <v>805.7</v>
       </c>
       <c r="AG5">
-        <v>476.4</v>
+        <v>-4011.1</v>
       </c>
       <c r="AH5">
-        <v>0.7369644379019137</v>
+        <v>0.6036562523413501</v>
       </c>
       <c r="AI5">
-        <v>0.6470308142303245</v>
+        <v>0.004131220738041021</v>
       </c>
       <c r="AJ5">
-        <v>0.5838950851820076</v>
+        <v>1.15191981850033</v>
       </c>
       <c r="AK5">
-        <v>0.478649653370843</v>
+        <v>-0.02108771186418401</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1100,7 +1094,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>UBS Group AG (SWX:UBSG)</t>
+          <t>Hypothekarbank Lenzburg AG (SWX:HBLN)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1109,13 +1103,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.00754</v>
+        <v>0.0766</v>
       </c>
       <c r="E6">
-        <v>0.0135</v>
-      </c>
-      <c r="F6">
-        <v>0.104</v>
+        <v>-0.00376</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1124,103 +1115,97 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-0.004512044482823455</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>-0.003428450174277939</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>3897</v>
+        <v>20.8</v>
       </c>
       <c r="L6">
-        <v>0.1348023106990902</v>
+        <v>0.2371721778791334</v>
       </c>
       <c r="M6">
-        <v>4427</v>
+        <v>8.3592</v>
       </c>
       <c r="N6">
-        <v>0.09655566509339313</v>
+        <v>0.0243</v>
       </c>
       <c r="O6">
-        <v>1.136002052861175</v>
+        <v>0.4018846153846153</v>
       </c>
       <c r="P6">
-        <v>2544</v>
+        <v>8.3592</v>
       </c>
       <c r="Q6">
-        <v>0.05548624621585546</v>
+        <v>0.0243</v>
       </c>
       <c r="R6">
-        <v>0.6528098537336413</v>
+        <v>0.4018846153846153</v>
       </c>
       <c r="S6">
-        <v>1883</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.4253444770725096</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>103231</v>
+        <v>957.1</v>
       </c>
       <c r="V6">
-        <v>2.251533287385604</v>
+        <v>2.782267441860465</v>
       </c>
       <c r="W6">
-        <v>0.07440757479421924</v>
+        <v>0.04008479475814223</v>
       </c>
       <c r="X6">
-        <v>0.07484444936018547</v>
+        <v>0.04232054179687017</v>
       </c>
       <c r="Y6">
-        <v>-0.000436874565966236</v>
+        <v>-0.002235747038727941</v>
       </c>
       <c r="Z6">
-        <v>0.09732624891657365</v>
+        <v>0.088114136441274</v>
       </c>
       <c r="AA6">
-        <v>-0.000333678195059845</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.03149701446593408</v>
+        <v>0.02172917797599238</v>
       </c>
       <c r="AC6">
-        <v>-0.03183069266099393</v>
+        <v>-0.02172917797599238</v>
       </c>
       <c r="AD6">
-        <v>340059</v>
+        <v>1317</v>
       </c>
       <c r="AE6">
-        <v>4072.193469769716</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>344131.1934697697</v>
+        <v>1317</v>
       </c>
       <c r="AG6">
-        <v>240900.1934697697</v>
+        <v>359.9</v>
       </c>
       <c r="AH6">
-        <v>0.8824320382056486</v>
+        <v>0.7928958458759783</v>
       </c>
       <c r="AI6">
-        <v>0.8592942667000577</v>
+        <v>0.7059391080617496</v>
       </c>
       <c r="AJ6">
-        <v>0.8401070724328015</v>
+        <v>0.511294217928683</v>
       </c>
       <c r="AK6">
-        <v>0.8104290552607133</v>
+        <v>0.396147495872317</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>497.1622807017544</v>
-      </c>
-      <c r="AP6">
-        <v>352.1932653066809</v>
       </c>
     </row>
     <row r="7">
@@ -1231,7 +1216,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Credit Suisse Group AG (SWX:CSGN)</t>
+          <t>UBS Group AG (SWX:UBSG)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1240,13 +1225,13 @@
         </is>
       </c>
       <c r="D7">
-        <v>-0.042</v>
+        <v>-0.0124</v>
       </c>
       <c r="E7">
-        <v>0.319</v>
+        <v>-0.0337</v>
       </c>
       <c r="F7">
-        <v>0.191</v>
+        <v>0.0545</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1255,103 +1240,97 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-0.007179669436717656</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>-0.004949243457167555</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>2832.4</v>
+        <v>5643</v>
       </c>
       <c r="L7">
-        <v>0.1354878212119473</v>
+        <v>0.1801609092650533</v>
       </c>
       <c r="M7">
-        <v>12153.5</v>
+        <v>2387</v>
       </c>
       <c r="N7">
-        <v>0.3629676529176883</v>
+        <v>0.04720208503889673</v>
       </c>
       <c r="O7">
-        <v>4.290884055924304</v>
+        <v>0.4230019493177388</v>
       </c>
       <c r="P7">
-        <v>701.6</v>
+        <v>1308</v>
       </c>
       <c r="Q7">
-        <v>0.02095347885687663</v>
+        <v>0.02586523972805904</v>
       </c>
       <c r="R7">
-        <v>0.247705126394577</v>
+        <v>0.2317916002126529</v>
       </c>
       <c r="S7">
-        <v>11451.9</v>
+        <v>1079</v>
       </c>
       <c r="T7">
-        <v>0.942271773563171</v>
+        <v>0.4520318391286133</v>
       </c>
       <c r="U7">
-        <v>124748.9</v>
+        <v>162337</v>
       </c>
       <c r="V7">
-        <v>3.725660545280241</v>
+        <v>3.21015705025529</v>
       </c>
       <c r="W7">
-        <v>0.06469561721683675</v>
+        <v>0.1004324843825084</v>
       </c>
       <c r="X7">
-        <v>0.07101734148429038</v>
+        <v>0.0644599872612341</v>
       </c>
       <c r="Y7">
-        <v>-0.006321724267453629</v>
+        <v>0.03597249712127432</v>
       </c>
       <c r="Z7">
-        <v>0.164817903770781</v>
+        <v>0.1068955514222821</v>
       </c>
       <c r="AA7">
-        <v>-0.0008157239318616099</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.03269189560943163</v>
+        <v>0.02479665816965003</v>
       </c>
       <c r="AC7">
-        <v>-0.03350761954129324</v>
+        <v>-0.02479665816965003</v>
       </c>
       <c r="AD7">
-        <v>227929.1</v>
+        <v>363228</v>
       </c>
       <c r="AE7">
-        <v>3296.46212754235</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>231225.5621275424</v>
+        <v>363228</v>
       </c>
       <c r="AG7">
-        <v>106476.6621275424</v>
+        <v>200891</v>
       </c>
       <c r="AH7">
-        <v>0.873507637281438</v>
+        <v>0.8777910370717292</v>
       </c>
       <c r="AI7">
-        <v>0.8358592881941721</v>
+        <v>0.8587518795570392</v>
       </c>
       <c r="AJ7">
-        <v>0.7607629796678638</v>
+        <v>0.7988958915266317</v>
       </c>
       <c r="AK7">
-        <v>0.7010427655822253</v>
+        <v>0.7707752220538301</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>447.6219560094266</v>
-      </c>
-      <c r="AP7">
-        <v>209.1057779409709</v>
       </c>
     </row>
     <row r="8">
@@ -1362,7 +1341,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Schweizerische Nationalbank (SWX:SNBN)</t>
+          <t>Credit Suisse Group AG (SWX:CSGN)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1371,10 +1350,13 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.11</v>
+        <v>-0.0283</v>
       </c>
       <c r="E8">
-        <v>0.111</v>
+        <v>0.0162</v>
+      </c>
+      <c r="F8">
+        <v>0.0442</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1383,97 +1365,103 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>-0.008763333913395713</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>-0.007109578907061194</v>
       </c>
       <c r="K8">
-        <v>44461.9</v>
+        <v>4223.2</v>
       </c>
       <c r="L8">
-        <v>0.9912339956883387</v>
+        <v>0.1740800738661424</v>
       </c>
       <c r="M8">
-        <v>1.5</v>
+        <v>10852.4</v>
       </c>
       <c r="N8">
-        <v>0.002694449434165619</v>
+        <v>0.3477798287442957</v>
       </c>
       <c r="O8">
-        <v>3.373674989148012e-05</v>
+        <v>2.569710172381133</v>
       </c>
       <c r="P8">
-        <v>1.5</v>
+        <v>390.3</v>
       </c>
       <c r="Q8">
-        <v>0.002694449434165619</v>
+        <v>0.01250769112444239</v>
       </c>
       <c r="R8">
-        <v>3.373674989148012e-05</v>
+        <v>0.09241807160447055</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>10462.1</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>0.9640356050274594</v>
       </c>
       <c r="U8">
-        <v>4431.6</v>
+        <v>174367.4</v>
       </c>
       <c r="V8">
-        <v>7.960481408298905</v>
+        <v>5.587839050402502</v>
       </c>
       <c r="W8">
-        <v>0.3408123343344172</v>
+        <v>0.09332564311648246</v>
       </c>
       <c r="X8">
-        <v>0.1644612881746629</v>
+        <v>0.07136038247740197</v>
       </c>
       <c r="Y8">
-        <v>0.1763510461597544</v>
+        <v>0.0219652606390805</v>
       </c>
       <c r="Z8">
-        <v>0.2989696218747563</v>
+        <v>0.1683807787216667</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>-0.0011971164327541</v>
       </c>
       <c r="AB8">
-        <v>0.03409142031588111</v>
+        <v>0.02618431241116405</v>
       </c>
       <c r="AC8">
-        <v>-0.03409142031588111</v>
+        <v>-0.02738142884391815</v>
       </c>
       <c r="AD8">
-        <v>12001.3</v>
+        <v>253278.6</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>3478.996785361856</v>
       </c>
       <c r="AF8">
-        <v>12001.3</v>
+        <v>256757.5967853618</v>
       </c>
       <c r="AG8">
-        <v>7569.699999999999</v>
+        <v>82390.19678536186</v>
       </c>
       <c r="AH8">
-        <v>0.9556696926262143</v>
+        <v>0.8916358512488035</v>
       </c>
       <c r="AI8">
-        <v>0.06591002827783121</v>
+        <v>0.8366050366034232</v>
       </c>
       <c r="AJ8">
-        <v>0.9314948808820634</v>
+        <v>0.7252977606138624</v>
       </c>
       <c r="AK8">
-        <v>0.04260910925419845</v>
+        <v>0.6216401692489184</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
         <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>524.1692880794702</v>
+      </c>
+      <c r="AP8">
+        <v>170.5095132147389</v>
       </c>
     </row>
   </sheetData>
